--- a/encrypted_messages.xlsx
+++ b/encrypted_messages.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-12-17 06:04:00</t>
+          <t>2024-12-17 07:11:16</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-12-17 06:04:13</t>
+          <t>2024-12-17 07:11:25</t>
         </is>
       </c>
     </row>
@@ -480,12 +480,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>New client connected from ('10.38.180.254', 58049)</t>
+          <t>New client connected from ('10.38.180.254', 58747)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-12-17 06:04:15</t>
+          <t>2024-12-17 07:11:27</t>
         </is>
       </c>
     </row>
@@ -502,7 +502,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-12-17 06:04:15</t>
+          <t>2024-12-17 07:11:27</t>
         </is>
       </c>
     </row>
@@ -514,12 +514,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Active connections: 2</t>
+          <t>Encrypted message received: 6bf4676eb8afd321fae66580adcbe6...</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-12-17 06:04:26</t>
+          <t>2024-12-17 07:11:28</t>
         </is>
       </c>
     </row>
@@ -531,12 +531,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>New client connected from ('10.38.180.254', 58052)</t>
+          <t>Active connections: 2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-12-17 06:04:28</t>
+          <t>2024-12-17 07:11:41</t>
         </is>
       </c>
     </row>
@@ -548,12 +548,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Client encryption key: 343536...</t>
+          <t>New client connected from ('10.38.180.254', 58749)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-12-17 06:04:28</t>
+          <t>2024-12-17 07:11:43</t>
         </is>
       </c>
     </row>
@@ -565,12 +565,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Encrypted message received: 4095d8c13f8ee9fcfb50dd5f0daef5...</t>
+          <t>Client encryption key: 3132333536...</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-12-17 06:04:31</t>
+          <t>2024-12-17 07:11:43</t>
         </is>
       </c>
     </row>
@@ -582,12 +582,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Message forwarded to ('10.38.180.254', 58052)</t>
+          <t>Encrypted message received: 721dcf21f16878a970e9cafcbaebca...</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-12-17 06:04:31</t>
+          <t>2024-12-17 07:11:45</t>
         </is>
       </c>
     </row>
@@ -599,97 +599,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Encrypted message received: c88151e80d43dd8900505d48b78a9f...</t>
+          <t>Message forwarded to ('10.38.180.254', 58747)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-12-17 06:04:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Server</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Message forwarded to ('10.38.180.254', 58049)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2024-12-17 06:04:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Server</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Error handling client ('10.38.180.254', 58049): [WinError 10054] An existing connection was forcibly closed by the remote host</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2024-12-17 06:04:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Server</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Client ('10.38.180.254', 58049) disconnected</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2024-12-17 06:04:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Server</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Error handling client ('10.38.180.254', 58052): [WinError 10054] An existing connection was forcibly closed by the remote host</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2024-12-17 06:04:43</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Server</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Client ('10.38.180.254', 58052) disconnected</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2024-12-17 06:04:43</t>
+          <t>2024-12-17 07:11:45</t>
         </is>
       </c>
     </row>
